--- a/DesktopApp/data/lenlichdangbaifacebook.xlsx
+++ b/DesktopApp/data/lenlichdangbaifacebook.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mci\automate-socials\DesktopApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ED3A3A-035A-4302-B953-1ED26BE342E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040155FC-CA27-416D-ACE7-0B5989389B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMAGE" sheetId="2" r:id="rId1"/>
-    <sheet name="REELS" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="REELS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Nội dung</t>
   </si>
@@ -84,6 +85,27 @@
   </si>
   <si>
     <t>Mô tả video 1</t>
+  </si>
+  <si>
+    <t>Bài viết thứ 1</t>
+  </si>
+  <si>
+    <t>Bài viết thứ 2</t>
+  </si>
+  <si>
+    <t>C:\Users\MSI\OneDrive\Hình ảnh\blog.png</t>
+  </si>
+  <si>
+    <t>625358260661885;635868239609344</t>
+  </si>
+  <si>
+    <t>C:\Users\MSI\Videos\Captures\lyrics.py - PlayLyrics - Visual Studio Code 2025-06-16 00-54-44.mp4</t>
+  </si>
+  <si>
+    <t>Tiêu đề video 2</t>
+  </si>
+  <si>
+    <t>Mô tả video 2</t>
   </si>
 </sst>
 </file>
@@ -212,9 +234,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +262,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +484,7 @@
   <dimension ref="A1:F968"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A15" activeCellId="1" sqref="A2:XFD3 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -473,31 +493,33 @@
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -3401,11 +3423,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0934E5A2-F4E0-42E5-BFD1-D7129BE4D9E1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="12">
+        <v>45890</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45890</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA65F60F-3C6B-4E55-8828-7C94733D93DF}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3420,80 +3497,118 @@
     <col min="12" max="12" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7">
-        <v>45857</v>
+      <c r="H2" s="6">
+        <v>45890</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2">
-        <v>601626129711368</v>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45890</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
